--- a/DataSets/train.xlsx
+++ b/DataSets/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -489,29 +489,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>01.01.2024</t>
+          <t>01.07.2023</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -523,29 +523,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>01.02.2024</t>
+          <t>03.07.2023</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -557,29 +557,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>01.03.2024</t>
+          <t>04.04.2024</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -591,29 +591,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>01.04.2024</t>
+          <t>04.06.2024</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -625,29 +625,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>01.11.2023</t>
+          <t>05.03.2024</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -659,29 +659,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>01.12.2023</t>
+          <t>06.06.2024</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -693,29 +693,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>02.01.2024</t>
+          <t>07.07.2023</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -727,29 +727,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>02.02.2024</t>
+          <t>07.08.2023</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -761,29 +761,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>02.03.2024</t>
+          <t>09.06.2024</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -795,29 +795,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>02.04.2024</t>
+          <t>09.07.2023</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -829,29 +829,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>02.07.2024</t>
+          <t>10.05.2024</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -863,29 +863,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>02.10.2023</t>
+          <t>10.12.2023</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -897,29 +897,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>02.12.2023</t>
+          <t>11.01.2024</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -931,29 +931,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>03.01.2024</t>
+          <t>11.12.2023</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -965,29 +965,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>03.02.2024</t>
+          <t>12.07.2023</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -999,29 +999,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>03.03.2024</t>
+          <t>13.02.2024</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H17" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -1033,29 +1033,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>03.05.2024</t>
+          <t>13.03.2024</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -1067,29 +1067,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>03.12.2023</t>
+          <t>13.08.2023</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -1101,29 +1101,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>04.02.2024</t>
+          <t>13.10.2023</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -1135,29 +1135,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>04.03.2024</t>
+          <t>14.06.2024</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -1169,29 +1169,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>04.12.2023</t>
+          <t>15.02.2024</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -1203,29 +1203,29 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>05.04.2024</t>
+          <t>15.11.2023</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -1237,29 +1237,29 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>05.06.2024</t>
+          <t>17.05.2024</t>
         </is>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1271,29 +1271,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>06.04.2024</t>
+          <t>17.11.2023</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -1305,29 +1305,29 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>06.05.2024</t>
+          <t>18.04.2024</t>
         </is>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -1339,29 +1339,29 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>06.11.2023</t>
+          <t>20.01.2024</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -1373,29 +1373,29 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>07.02.2024</t>
+          <t>20.06.2024</t>
         </is>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -1407,29 +1407,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>08.04.2024</t>
+          <t>21.05.2024</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -1441,29 +1441,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08.05.2024</t>
+          <t>22.03.2024</t>
         </is>
       </c>
       <c r="G30" t="n">
         <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -1475,29 +1475,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09.01.2024</t>
+          <t>22.04.2024</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1509,29 +1509,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09.02.2024</t>
+          <t>23.04.2024</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -1543,29 +1543,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10.02.2024</t>
+          <t>23.05.2024</t>
         </is>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -1577,29 +1577,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10.04.2024</t>
+          <t>23.06.2024</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1611,29 +1611,29 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10.12.2023</t>
+          <t>23.09.2023</t>
         </is>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -1645,29 +1645,29 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>12.04.2024</t>
+          <t>24.04.2024</t>
         </is>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1679,29 +1679,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>12.10.2023</t>
+          <t>25.03.2024</t>
         </is>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -1713,29 +1713,29 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>13.02.2024</t>
+          <t>25.04.2024</t>
         </is>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -1747,29 +1747,29 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>14.11.2023</t>
+          <t>25.09.2023</t>
         </is>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -1781,29 +1781,29 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>14.12.2023</t>
+          <t>26.01.2024</t>
         </is>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -1815,29 +1815,29 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>15.06.2024</t>
+          <t>26.02.2024</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -1849,29 +1849,29 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>16.02.2024</t>
+          <t>26.03.2024</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -1883,29 +1883,29 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>16.09.2023</t>
+          <t>26.04.2024</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -1917,29 +1917,29 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>17.05.2024</t>
+          <t>26.06.2024</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -1951,29 +1951,29 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>17.06.2024</t>
+          <t>26.09.2023</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -1985,29 +1985,29 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>17.09.2023</t>
+          <t>27.05.2024</t>
         </is>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -2019,29 +2019,29 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>18.04.2024</t>
+          <t>28.06.2024</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -2053,29 +2053,29 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>18.05.2024</t>
+          <t>28.09.2023</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -2087,29 +2087,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>19.01.2024</t>
+          <t>28.11.2023</t>
         </is>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -2121,29 +2121,29 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>20.11.2023</t>
+          <t>29.05.2024</t>
         </is>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -2155,29 +2155,29 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>21.02.2024</t>
+          <t>29.06.2024</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -2189,29 +2189,29 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>21.12.2023</t>
+          <t>29.10.2023</t>
         </is>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -2223,500 +2223,24 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Kocaeli</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>07.08.2001</t>
+          <t>22.09.1999</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>22.06.2024</t>
+          <t>30.06.2024</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>1.757575757575758</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Kadın</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Kocaeli</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>07.08.2001</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>22.10.2023</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1.757575757575758</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>1</v>
-      </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Kadın</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Kocaeli</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>07.08.2001</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>23.02.2024</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1.757575757575758</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>1</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Kadın</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Kocaeli</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>07.08.2001</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>25.03.2024</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>3</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1.757575757575758</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Kadın</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Kocaeli</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>07.08.2001</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>26.04.2024</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1.757575757575758</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Kadın</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Kocaeli</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>07.08.2001</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>28.05.2024</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>2</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1.757575757575758</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Kadın</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Kocaeli</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>07.08.2001</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>28.06.2024</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>3</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1.757575757575758</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Kadın</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Kocaeli</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>07.08.2001</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>28.10.2023</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1.757575757575758</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Kadın</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Kocaeli</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>07.08.2001</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>28.11.2023</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1.757575757575758</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>1</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Kadın</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Kocaeli</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>07.08.2001</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>29.01.2024</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>4</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1.757575757575758</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Kadın</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Kocaeli</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>07.08.2001</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>29.06.2024</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1.757575757575758</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>1</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Kadın</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Kocaeli</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>07.08.2001</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>30.06.2024</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>3</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1.757575757575758</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>1</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Kadın</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Kocaeli</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>07.08.2001</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>30.09.2023</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>2</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1.757575757575758</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>1</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Kadın</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Kocaeli</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>07.08.2001</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>31.01.2024</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1.757575757575758</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>1</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Kadın</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Kocaeli</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>07.08.2001</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>31.05.2024</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>2</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1.757575757575758</v>
+        <v>2.038461538461538</v>
       </c>
     </row>
   </sheetData>
